--- a/ProbEstat_aula03.xlsx
+++ b/ProbEstat_aula03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C12715-50B1-4522-BF6D-0AB7FD500371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFA364-DF5C-44E9-B4EA-3BC56B53F166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{59D0B511-9976-410E-AF49-62C519A54F49}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>O preço de drogas prescritas é uma questão nacional atualmente nos Estados Unidos. Zocor é uma prescrição comum, trata-se de uma droga para redução do colesterol, prescrita para pessoas com risco de ter doenças cardíacas. A Tabela  a seguir mostra os preços de Zocor em 15 farmácias selecionadas aleatoriamente em dois estados. Para alfa = 0,05, existe uma diferença na média para todas as farmácias no Colorado e no Texas?</t>
   </si>
@@ -163,6 +163,33 @@
   </si>
   <si>
     <t>Negamos, pois t &lt; α</t>
+  </si>
+  <si>
+    <t>Teste-t: duas amostras presumindo variâncias equivalentes</t>
+  </si>
+  <si>
+    <t>Variância agrupada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p valor </t>
+  </si>
+  <si>
+    <t>é significante</t>
+  </si>
+  <si>
+    <t>&lt; 0,05</t>
+  </si>
+  <si>
+    <t>Mais significante que o bi</t>
+  </si>
+  <si>
+    <t>Provavelmente cresceu o pé</t>
+  </si>
+  <si>
+    <t>É significante</t>
+  </si>
+  <si>
+    <t>Ambos são significantes, mas tem tendecia de ser uni-caudal</t>
   </si>
 </sst>
 </file>
@@ -254,6 +281,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -263,12 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,29 +625,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -859,42 +886,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B2C252-5483-4483-B239-B2573772516D}">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -903,8 +932,11 @@
       <c r="C5" s="3">
         <v>1960</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>7.5</v>
       </c>
@@ -919,6 +951,13 @@
       <c r="C7" s="2">
         <v>8</v>
       </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>1980</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1960</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -927,6 +966,15 @@
       <c r="C8" s="2">
         <v>8</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.2272727272727266</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7.6363636363636367</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -935,6 +983,15 @@
       <c r="C9" s="2">
         <v>7.5</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.15454545454545454</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -943,6 +1000,15 @@
       <c r="C10" s="2">
         <v>7.5</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6">
+        <v>11</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -954,6 +1020,13 @@
       <c r="C11" s="2">
         <v>7.5</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.28636363636363632</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -962,6 +1035,13 @@
       <c r="C12" s="2">
         <v>8</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -970,6 +1050,13 @@
       <c r="C13" s="2">
         <v>7</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -978,6 +1065,13 @@
       <c r="C14" s="2">
         <v>8</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.5896619868911821</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -986,6 +1080,19 @@
       <c r="C15" s="2">
         <v>7</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8.7569901900817308E-3</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -994,6 +1101,56 @@
       <c r="C16" s="2">
         <v>8</v>
       </c>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.7247182429207868</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f>AVERAGE(B6:B16)</f>
+        <v>8.2272727272727266</v>
+      </c>
+      <c r="C17" s="2">
+        <f>AVERAGE(C6:C16)</f>
+        <v>7.6363636363636367</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.7513980380163462E-2</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>_xlfn.STDEV.S(B6:B16)</f>
+        <v>0.64666979068286323</v>
+      </c>
+      <c r="C18">
+        <f>_xlfn.STDEV.S(C6:C16)</f>
+        <v>0.39312269655344823</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.0859634472658648</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1001,6 +1158,7 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1018,17 +1176,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1141,7 +1299,7 @@
   <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,20 +1310,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1213,11 +1371,11 @@
         <f t="shared" ref="D6:D14" si="0">B6-C6</f>
         <v>100</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K6" t="s">
@@ -1238,14 +1396,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>4690</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>4930</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1262,13 +1423,13 @@
         <f t="shared" si="0"/>
         <v>-500</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>7836555.555555556</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>9053444.444444444</v>
       </c>
     </row>
@@ -1286,13 +1447,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>10</v>
       </c>
     </row>
@@ -1310,13 +1471,13 @@
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>0.99624738585089656</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1332,13 +1493,13 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1354,13 +1515,13 @@
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>9</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1376,13 +1537,13 @@
         <f t="shared" si="0"/>
         <v>-700</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>-2.3189638550429912</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1398,40 +1559,43 @@
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="9">
         <v>2.2781514760110751E-2</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="6"/>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>1.8331129326562374</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <v>4.5563029520221503E-2</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>2.2621571627982053</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
